--- a/src/test/resources/test donation data.xlsx
+++ b/src/test/resources/test donation data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Mr</t>
   </si>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -195,10 +195,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -614,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BB4"/>
+  <dimension ref="A2:BB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
@@ -656,7 +652,7 @@
         <v>1685</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>1440</v>
       </c>
       <c r="K2" s="6"/>
@@ -724,20 +720,20 @@
       <c r="A3" s="11">
         <v>1050223</v>
       </c>
-      <c r="B3" s="14">
-        <v>41124</v>
+      <c r="B3" s="12">
+        <v>41125</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15">
-        <v>12345</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="14">
+        <v>1235</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2">
@@ -747,7 +743,7 @@
       <c r="I3" s="7">
         <v>700</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7">
         <v>50</v>
@@ -819,16 +815,16 @@
       <c r="A4" s="11">
         <v>1050224</v>
       </c>
-      <c r="B4" s="14">
-        <v>41124</v>
+      <c r="B4" s="12">
+        <v>41126</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2">
@@ -836,7 +832,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="19"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -884,6 +880,263 @@
       <c r="BA4" s="10"/>
       <c r="BB4" s="10"/>
     </row>
+    <row r="5" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A5" s="11">
+        <v>1050225</v>
+      </c>
+      <c r="B5" s="12">
+        <v>41127</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <v>12341</v>
+      </c>
+      <c r="E5" s="11">
+        <v>95308</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <f>SUM(I5:AE5)</f>
+        <v>1685</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="17">
+        <v>1440</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <v>120</v>
+      </c>
+      <c r="M5" s="6">
+        <v>50</v>
+      </c>
+      <c r="N5" s="6">
+        <v>50</v>
+      </c>
+      <c r="O5" s="6">
+        <v>12</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="6">
+        <v>3</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+    </row>
+    <row r="6" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A6" s="11">
+        <v>1050226</v>
+      </c>
+      <c r="B6" s="12">
+        <v>41128</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>12342</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H7" si="1">SUM(I6:AE6)</f>
+        <v>1000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>700</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>50</v>
+      </c>
+      <c r="M6" s="7">
+        <v>50</v>
+      </c>
+      <c r="N6" s="7">
+        <v>50</v>
+      </c>
+      <c r="O6" s="7">
+        <v>15</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="7">
+        <v>3</v>
+      </c>
+      <c r="V6" s="7">
+        <v>10</v>
+      </c>
+      <c r="W6" s="7">
+        <v>90</v>
+      </c>
+      <c r="X6" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+    </row>
+    <row r="7" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A7" s="11">
+        <v>1050227</v>
+      </c>
+      <c r="B7" s="12">
+        <v>41129</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12342</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/test donation data.xlsx
+++ b/src/test/resources/test donation data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="0" windowWidth="1896" windowHeight="13176" tabRatio="601"/>
+    <workbookView xWindow="108" yWindow="60" windowWidth="19584" windowHeight="10008" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="27" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Mr</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>ABC DEF</t>
+  </si>
+  <si>
+    <t>Alsadaqat</t>
   </si>
 </sst>
 </file>
@@ -610,22 +613,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BB7"/>
+  <dimension ref="A2:BC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="2" spans="1:55" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="11">
         <v>1050222</v>
       </c>
@@ -633,67 +636,69 @@
         <v>41124</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>1234</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>95308</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(I2:AE2)</f>
+      <c r="I2" s="2">
+        <f>SUM(J2:AF2)</f>
         <v>1685</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="17">
+      <c r="J2" s="6"/>
+      <c r="K2" s="17">
         <v>1440</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6">
         <v>120</v>
-      </c>
-      <c r="M2" s="6">
-        <v>50</v>
       </c>
       <c r="N2" s="6">
         <v>50</v>
       </c>
       <c r="O2" s="6">
+        <v>50</v>
+      </c>
+      <c r="P2" s="6">
         <v>12</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="6">
+      <c r="S2" s="3"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="6">
         <v>3</v>
       </c>
-      <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
-      <c r="Y2" s="6">
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6">
         <v>10</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="6"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="10"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="4"/>
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
       <c r="AJ2" s="10"/>
@@ -715,8 +720,9 @@
       <c r="AZ2" s="10"/>
       <c r="BA2" s="10"/>
       <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A3" s="11">
         <v>1050223</v>
       </c>
@@ -724,30 +730,30 @@
         <v>41125</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14">
+      <c r="E3" s="14">
         <v>1235</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H4" si="0">SUM(I3:AE3)</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I4" si="0">SUM(J3:AF3)</f>
         <v>1000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>700</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>50</v>
-      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="7">
         <v>50</v>
       </c>
@@ -755,40 +761,42 @@
         <v>50</v>
       </c>
       <c r="O3" s="7">
+        <v>50</v>
+      </c>
+      <c r="P3" s="7">
         <v>15</v>
       </c>
-      <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="7">
+      <c r="S3" s="3"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="7">
         <v>3</v>
       </c>
-      <c r="V3" s="7">
+      <c r="W3" s="7">
         <v>10</v>
       </c>
-      <c r="W3" s="7">
+      <c r="X3" s="7">
         <v>90</v>
       </c>
-      <c r="X3" s="7">
+      <c r="Y3" s="7">
         <v>7</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Z3" s="8">
         <v>15</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="AA3" s="7">
         <v>10</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="9"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="10"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="4"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="10"/>
@@ -810,8 +818,9 @@
       <c r="AZ3" s="10"/>
       <c r="BA3" s="10"/>
       <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
     </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="4" spans="1:55" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A4" s="11">
         <v>1050224</v>
       </c>
@@ -819,45 +828,47 @@
         <v>41126</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="3"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="7"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="3">
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="3">
         <v>1000</v>
       </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="9"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="10"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="4"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
@@ -879,8 +890,9 @@
       <c r="AZ4" s="10"/>
       <c r="BA4" s="10"/>
       <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
     </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:55" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="11">
         <v>1050225</v>
       </c>
@@ -888,67 +900,69 @@
         <v>41127</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>12341</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>95308</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
-        <f>SUM(I5:AE5)</f>
+      <c r="I5" s="2">
+        <f>SUM(J5:AF5)</f>
         <v>1685</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="17">
+      <c r="J5" s="6"/>
+      <c r="K5" s="17">
         <v>1440</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
         <v>120</v>
-      </c>
-      <c r="M5" s="6">
-        <v>50</v>
       </c>
       <c r="N5" s="6">
         <v>50</v>
       </c>
       <c r="O5" s="6">
+        <v>50</v>
+      </c>
+      <c r="P5" s="6">
         <v>12</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="6">
+      <c r="S5" s="3"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="6">
         <v>3</v>
       </c>
-      <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="6">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6">
         <v>10</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="6"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="10"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="4"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
@@ -970,8 +984,9 @@
       <c r="AZ5" s="10"/>
       <c r="BA5" s="10"/>
       <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="6" spans="1:55" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A6" s="11">
         <v>1050226</v>
       </c>
@@ -979,30 +994,30 @@
         <v>41128</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E6" s="14">
         <v>12342</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="1">SUM(I6:AE6)</f>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I7" si="1">SUM(J6:AF6)</f>
         <v>1000</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>700</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>50</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7">
         <v>50</v>
       </c>
@@ -1010,40 +1025,42 @@
         <v>50</v>
       </c>
       <c r="O6" s="7">
+        <v>50</v>
+      </c>
+      <c r="P6" s="7">
         <v>15</v>
       </c>
-      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="7">
+      <c r="S6" s="3"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="7">
         <v>3</v>
       </c>
-      <c r="V6" s="7">
+      <c r="W6" s="7">
         <v>10</v>
       </c>
-      <c r="W6" s="7">
+      <c r="X6" s="7">
         <v>90</v>
       </c>
-      <c r="X6" s="7">
+      <c r="Y6" s="7">
         <v>7</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Z6" s="8">
         <v>15</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="AA6" s="7">
         <v>10</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="9"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="10"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="4"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
@@ -1065,8 +1082,9 @@
       <c r="AZ6" s="10"/>
       <c r="BA6" s="10"/>
       <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="7" spans="1:55" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A7" s="11">
         <v>1050227</v>
       </c>
@@ -1074,47 +1092,49 @@
         <v>41129</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E7" s="14">
         <v>12342</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="7"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="3">
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="3">
         <v>1000</v>
       </c>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="9"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="10"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="4"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -1136,6 +1156,7 @@
       <c r="AZ7" s="10"/>
       <c r="BA7" s="10"/>
       <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
